--- a/data/trans_dic/CONS_DOL-Edad-trans_dic.xlsx
+++ b/data/trans_dic/CONS_DOL-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -568,62 +569,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>16/24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,4%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,41%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>21,42%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,18%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,35%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,4%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>6,21%</t>
+          <t>31,94%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,41%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,2%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,9%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>26,55%</t>
         </is>
       </c>
     </row>
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,01; 6,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,97; 21,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,24; 16,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,69; 10,12</t>
+          <t>14,83; 29,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,76; 10,84</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,92; 32,43</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,86; 22,64</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,07; 11,57</t>
+          <t>23,83; 40,63</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,97; 7,52</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,87; 23,59</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,9; 18,41</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,57; 8,66</t>
+          <t>21,33; 32,01</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>25/34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,11%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,03%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>22,2%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,93%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,94%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,3%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>5,48%</t>
+          <t>30,54%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,25%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,12%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,79%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>26,46%</t>
         </is>
       </c>
     </row>
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,39; 5,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,16; 30,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,12; 19,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,91; 8,55</t>
+          <t>17,26; 28,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,8; 13,73</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,49; 24,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,17; 22,89</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,03; 9,22</t>
+          <t>24,41; 36,88</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,54; 8,56</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,52; 24,5</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,85; 19,96</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,55; 7,61</t>
+          <t>22,59; 30,68</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>35/44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,07%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,96%</t>
+          <t>19,36%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,55%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>24,71%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>12,52%</t>
+          <t>12,92%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>26,61%</t>
+          <t>33,64%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,58%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>35,58%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>11,02%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>14,59%</t>
+          <t>26,64%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,06%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>29,98%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1005,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>6,91; 12,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,65</t>
+          <t>14,72; 24,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,79; 24,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,7; 7,62</t>
+          <t>19,34; 30,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 49,29</t>
+          <t>10,03; 16,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,22; 51,04</t>
+          <t>29,55; 37,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,47; 27,17</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,57; 7,07</t>
+          <t>29,84; 42,33</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,8</t>
+          <t>9,17; 13,37</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,92; 29,03</t>
+          <t>23,51; 30,07</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,9; 23,81</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,06; 6,54</t>
+          <t>26,09; 34,31</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>45/54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>13,07%</t>
+          <t>11,45%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>21,42%</t>
+          <t>15,06%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>11,1%</t>
+          <t>17,95%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>25,01%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>17,56%</t>
+          <t>18,38%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>31,94%</t>
+          <t>38,41%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>19,96%</t>
+          <t>26,99%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,38%</t>
+          <t>36,91%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>15,31%</t>
+          <t>14,9%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>26,55%</t>
+          <t>24,22%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>15,39%</t>
+          <t>22,33%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,29%</t>
+          <t>31,01%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1145,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,98; 18,44</t>
+          <t>9,3; 14,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,58; 28,68</t>
+          <t>5,15; 26,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,59; 17,55</t>
+          <t>14,47; 21,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,9; 5,41</t>
+          <t>19,78; 31,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,3; 22,68</t>
+          <t>15,87; 22,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>24,61; 40,66</t>
+          <t>34,39; 42,61</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>14,37; 26,19</t>
+          <t>22,95; 31,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,44; 10,17</t>
+          <t>31,14; 44,19</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>12,46; 18,97</t>
+          <t>13,26; 16,98</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>21,55; 31,61</t>
+          <t>11,86; 32,78</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>11,91; 20,28</t>
+          <t>19,66; 25,3</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,88; 6,85</t>
+          <t>26,57; 35,65</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>55/64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>14,72%</t>
+          <t>13,95%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>22,2%</t>
+          <t>29,16%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>18,09%</t>
+          <t>23,42%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>30,23%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>19,21%</t>
+          <t>16,81%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>30,54%</t>
+          <t>44,38%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>20,67%</t>
+          <t>33,73%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>9,85%</t>
+          <t>32,76%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>17,11%</t>
+          <t>15,49%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>26,46%</t>
+          <t>36,53%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>19,48%</t>
+          <t>28,78%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>6,6%</t>
+          <t>31,6%</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10,85; 19,21</t>
+          <t>11,02; 17,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,93; 28,41</t>
+          <t>24,16; 33,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>13,2; 23,12</t>
+          <t>19,19; 28,11</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,07; 5,98</t>
+          <t>23,2; 38,51</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>15,23; 24,4</t>
+          <t>14,3; 19,7</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>25,22; 36,85</t>
+          <t>39,88; 48,31</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>16,77; 24,89</t>
+          <t>28,93; 38,95</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,16; 13,45</t>
+          <t>26,89; 39,12</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>14,36; 20,22</t>
+          <t>13,52; 17,69</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>22,54; 30,76</t>
+          <t>33,16; 39,6</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>16,34; 22,51</t>
+          <t>25,2; 32,14</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,84; 8,58</t>
+          <t>26,68; 36,79</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>65/74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>20,2%</t>
+          <t>10,65%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>24,71%</t>
+          <t>23,94%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>18,32%</t>
+          <t>25,84%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>8,62%</t>
+          <t>44,31%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>22,95%</t>
+          <t>20,67%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>35,58%</t>
+          <t>74,48%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>30,36%</t>
+          <t>42,66%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>12,7%</t>
+          <t>42,16%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>21,58%</t>
+          <t>15,83%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>29,98%</t>
+          <t>58,57%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>24,48%</t>
+          <t>34,35%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>10,69%</t>
+          <t>43,1%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>16,43; 24,52</t>
+          <t>8,33; 13,71</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>19,86; 30,19</t>
+          <t>19,39; 29,38</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,75; 21,92</t>
+          <t>22,18; 29,43</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,38; 11,23</t>
+          <t>34,49; 53,61</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>19,09; 27,4</t>
+          <t>17,39; 24,03</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>29,25; 42,85</t>
+          <t>51,91; 91,33</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>27,17; 33,82</t>
+          <t>37,92; 47,18</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>10,01; 15,53</t>
+          <t>34,24; 50,24</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>18,87; 24,78</t>
+          <t>13,83; 18,11</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>25,82; 34,46</t>
+          <t>38,66; 82,17</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>22,07; 26,83</t>
+          <t>31,34; 37,47</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>8,99; 12,52</t>
+          <t>36,94; 49,11</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>75 y más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>18,63%</t>
+          <t>21,28%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>25,01%</t>
+          <t>35,23%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>23,6%</t>
+          <t>34,42%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>11,09%</t>
+          <t>36,54%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>27,06%</t>
+          <t>32,5%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>36,91%</t>
+          <t>61,56%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>37,84%</t>
+          <t>54,0%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>18,17%</t>
+          <t>64,77%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>22,7%</t>
+          <t>27,81%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>31,01%</t>
+          <t>51,19%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>30,83%</t>
+          <t>45,99%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>14,58%</t>
+          <t>54,06%</t>
         </is>
       </c>
     </row>
@@ -1564,69 +1565,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>15,25; 22,17</t>
+          <t>18,07; 25,42</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>19,59; 30,67</t>
+          <t>29,17; 41,21</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>17,77; 27,69</t>
+          <t>29,83; 38,95</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,06; 13,42</t>
+          <t>28,3; 45,07</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>23,03; 31,22</t>
+          <t>29,06; 36,02</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>30,73; 44,05</t>
+          <t>56,81; 66,42</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>34,78; 41,6</t>
+          <t>49,8; 58,59</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>15,66; 20,83</t>
+          <t>58,13; 71,2</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>20,03; 25,47</t>
+          <t>25,28; 30,41</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>26,53; 35,63</t>
+          <t>47,17; 54,71</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>27,22; 33,43</t>
+          <t>42,57; 49,43</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>13,0; 16,33</t>
+          <t>48,2; 59,64</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -1636,62 +1637,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>23,94%</t>
+          <t>11,27%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>30,23%</t>
+          <t>20,78%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>29,96%</t>
+          <t>20,73%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>13,71%</t>
+          <t>27,98%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>35,4%</t>
+          <t>18,6%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
+          <t>44,04%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>30,71%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>39,32%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>15,08%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
           <t>32,76%</t>
         </is>
       </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>44,36%</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>15,83%</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>30,03%</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>31,6%</t>
-        </is>
-      </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>37,13%</t>
+          <t>25,89%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>14,85%</t>
+          <t>33,95%</t>
         </is>
       </c>
     </row>
@@ -1704,510 +1705,1922 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>19,72; 28,54</t>
+          <t>10,23; 12,38</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>23,21; 37,91</t>
+          <t>13,81; 24,08</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>26,15; 33,64</t>
+          <t>19,12; 22,48</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>11,28; 16,29</t>
+          <t>25,52; 30,99</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>31,3; 40,42</t>
+          <t>17,15; 19,76</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>27,22; 39,64</t>
+          <t>37,25; 58,9</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>41,27; 47,87</t>
+          <t>28,96; 32,51</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>13,56; 18,4</t>
+          <t>36,7; 41,78</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>26,62; 33,51</t>
+          <t>14,21; 15,91</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>27,04; 36,59</t>
+          <t>27,69; 42,51</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>34,64; 39,66</t>
+          <t>24,68; 27,12</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>13,25; 16,63</t>
+          <t>32,15; 35,89</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>65/74</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>25,45%</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>44,31%</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>27,18%</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>9,88%</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>44,17%</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>42,16%</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>62,35%</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>19,73%</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>33,96%</t>
-        </is>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>43,1%</t>
-        </is>
-      </c>
-      <c r="M20" s="2" t="inlineStr">
-        <is>
-          <t>47,73%</t>
-        </is>
-      </c>
-      <c r="N20" s="2" t="inlineStr">
-        <is>
-          <t>14,91%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>21,89; 29,44</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>35,35; 54,06</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>23,42; 31,08</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>7,92; 12,2</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>40,01; 48,54</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>34,19; 50,61</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>52,01; 81,56</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>16,89; 22,52</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>31,19; 36,99</t>
-        </is>
-      </c>
-      <c r="L21" s="2" t="inlineStr">
-        <is>
-          <t>36,98; 49,46</t>
-        </is>
-      </c>
-      <c r="M21" s="2" t="inlineStr">
-        <is>
-          <t>39,86; 64,47</t>
-        </is>
-      </c>
-      <c r="N21" s="2" t="inlineStr">
-        <is>
-          <t>13,26; 16,93</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>75 y más</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>36,21%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>36,54%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>40,01%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>21,11%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>54,68%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>64,77%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>66,92%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>31,19%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>45,97%</t>
-        </is>
-      </c>
-      <c r="L22" s="2" t="inlineStr">
-        <is>
-          <t>54,06%</t>
-        </is>
-      </c>
-      <c r="M22" s="2" t="inlineStr">
-        <is>
-          <t>56,38%</t>
-        </is>
-      </c>
-      <c r="N22" s="2" t="inlineStr">
-        <is>
-          <t>27,0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>31,92; 40,78</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>28,72; 44,57</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>35,36; 44,85</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>17,86; 24,44</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>50,41; 59,36</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>57,89; 71,16</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>63,72; 70,26</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>28,35; 34,47</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>42,86; 49,16</t>
-        </is>
-      </c>
-      <c r="L23" s="2" t="inlineStr">
-        <is>
-          <t>48,18; 59,41</t>
-        </is>
-      </c>
-      <c r="M23" s="2" t="inlineStr">
-        <is>
-          <t>53,37; 59,31</t>
-        </is>
-      </c>
-      <c r="N23" s="2" t="inlineStr">
-        <is>
-          <t>24,81; 29,33</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>22,76%</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>27,88%</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>23,66%</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>10,13%</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>33,64%</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>39,28%</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>40,97%</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>16,38%</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>28,22%</t>
-        </is>
-      </c>
-      <c r="L24" s="2" t="inlineStr">
-        <is>
-          <t>33,88%</t>
-        </is>
-      </c>
-      <c r="M24" s="2" t="inlineStr">
-        <is>
-          <t>32,82%</t>
-        </is>
-      </c>
-      <c r="N24" s="2" t="inlineStr">
-        <is>
-          <t>13,35%</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>21,24; 24,45</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>25,29; 30,69</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>21,95; 25,52</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>9,37; 11,03</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>31,94; 35,5</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>36,75; 42,07</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>38,65; 47,5</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>15,41; 17,39</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>27,09; 29,32</t>
-        </is>
-      </c>
-      <c r="L25" s="2" t="inlineStr">
-        <is>
-          <t>32,08; 35,75</t>
-        </is>
-      </c>
-      <c r="M25" s="2" t="inlineStr">
-        <is>
-          <t>31,22; 36,7</t>
-        </is>
-      </c>
-      <c r="N25" s="2" t="inlineStr">
-        <is>
-          <t>12,63; 14,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A1:B2"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Consumo de medicamentos para el dolor</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16/24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>2294</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>29283</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>21115</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>13853</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>4485</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>43045</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>29653</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>19658</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>6779</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>72328</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>50768</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>33511</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1263; 3982</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>14103; 51917</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>14015; 28325</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>9589; 19241</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2976; 6772</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>27504; 59793</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>21911; 38584</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>14666; 25001</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>4978; 9421</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>49909; 99200</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>40536; 62704</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>26922; 40404</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25/34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>50724</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>27378</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>27191</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>6201</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>53271</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>38777</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>39099</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>8223</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>103995</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>66155</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>66290</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>965; 3716</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>34770; 69364</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>20255; 35692</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>21144; 35161</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>4250; 8580</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>26696; 76148</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>30033; 48492</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>31256; 47220</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>5973; 11274</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>68073; 133223</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>54580; 78682</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>56584; 76847</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35/44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>8585</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>60177</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>48662</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>34441</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>12600</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>108535</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>56149</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>46602</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>21185</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>168712</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>104811</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>81042</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>6546; 11602</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>45739; 74603</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>39309; 61169</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>26957; 42035</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>9778; 15645</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>95334; 122488</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>45927; 67558</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>39081; 55440</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>17630; 25705</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>148909; 190462</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>89067; 118459</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>70544; 92745</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45/54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>15963</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>94477</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>53320</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>29426</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>25358</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>155477</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>75300</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>44117</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>41321</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>249954</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>128620</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>73543</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>12967; 20075</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>32285; 165545</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>42981; 63882</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>23272; 36647</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>21894; 30484</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>139193; 172467</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>64022; 88835</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>37224; 52816</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>36795; 47096</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>122358; 338328</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>113236; 145701</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>63018; 84560</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55/64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>366</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>17694</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>98880</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>54961</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>29626</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>24773</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>141520</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>85701</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>37958</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>42467</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>240401</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>140662</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>67585</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>13980; 21684</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>81950; 114024</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>45044; 65967</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>22738; 37743</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>21077; 29032</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>127165; 154069</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>73502; 98967</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>31155; 45328</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>37069; 48492</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>218208; 260600</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>123172; 157094</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>57061; 78679</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65/74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>363</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>11465</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>49823</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>47556</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>30617</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>23749</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>337141</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>80487</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>37163</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>35214</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>386964</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>128044</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>67780</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>8959; 14756</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>40351; 61141</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>40827; 54172</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>23835; 37047</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>19986; 27611</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>234954; 413396</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>71538; 89012</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>30180; 44285</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>30781; 40291</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>255407; 542943</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>116825; 139652</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>58097; 77234</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 y más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>293</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>468</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>20505</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>53477</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>50441</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>25178</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>43531</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>143799</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>114376</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>72981</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>64037</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>197276</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>164817</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>98158</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>17407; 24494</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>44270; 62545</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>43707; 57072</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>19495; 31050</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>38916; 48237</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>132721; 155169</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>105478; 124097</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>65501; 80228</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>58209; 70034</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>181791; 210849</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>152542; 177145</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>87516; 108285</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>467</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>654</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>829</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>1272</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>983</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>722</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>1279</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>1739</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>1637</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>1164</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>78528</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>436841</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>303433</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>190331</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>140698</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>982788</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>480444</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>297577</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>219226</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>1419629</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>783877</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>487909</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>71302; 86290</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>290336; 506337</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>279874; 328953</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>173553; 210789</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>129766; 149506</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>831191; 1314217</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>453116; 508582</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>277738; 316167</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>206575; 231295</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>1199865; 1842263</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>747480; 821117</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>462011; 515684</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/CONS_DOL-Edad-trans_dic.xlsx
+++ b/data/trans_dic/CONS_DOL-Edad-trans_dic.xlsx
@@ -535,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el dolor</t>
+          <t>Consumo de medicamentos para el dolor (tasa de respuesta: 99,68%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1826,7 +1826,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el dolor</t>
+          <t>Consumo de medicamentos para el dolor (tasa de respuesta: 99,68%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/CONS_DOL-Edad-trans_dic.xlsx
+++ b/data/trans_dic/CONS_DOL-Edad-trans_dic.xlsx
@@ -657,7 +657,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>7,18%</t>
+          <t>7,21%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,41%</t>
+          <t>5,45%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -725,12 +725,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,01; 6,34</t>
+          <t>2,21; 6,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,97; 21,98</t>
+          <t>6,0; 23,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -740,17 +740,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>14,83; 29,75</t>
+          <t>14,47; 28,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,76; 10,84</t>
+          <t>4,88; 10,56</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,92; 32,43</t>
+          <t>15,46; 32,53</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -760,17 +760,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>23,83; 40,63</t>
+          <t>24,11; 40,5</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,97; 7,52</t>
+          <t>3,83; 7,43</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>11,87; 23,59</t>
+          <t>12,16; 23,77</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -780,7 +780,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>21,33; 32,01</t>
+          <t>21,19; 31,31</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -817,7 +817,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>9,93%</t>
+          <t>8,57%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -837,7 +837,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>6,25%</t>
+          <t>5,82%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -865,12 +865,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,39; 5,37</t>
+          <t>1,82; 5,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15,16; 30,24</t>
+          <t>15,18; 29,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -880,17 +880,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17,26; 28,71</t>
+          <t>16,97; 28,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,8; 13,73</t>
+          <t>6,08; 11,84</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,49; 24,22</t>
+          <t>7,58; 24,41</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -900,17 +900,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>24,41; 36,88</t>
+          <t>25,06; 37,19</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,54; 8,56</t>
+          <t>4,16; 7,88</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>12,52; 24,5</t>
+          <t>12,04; 24,53</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -920,7 +920,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>22,59; 30,68</t>
+          <t>22,33; 30,56</t>
         </is>
       </c>
     </row>
@@ -937,7 +937,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,07%</t>
+          <t>8,75%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>12,92%</t>
+          <t>12,51%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>11,02%</t>
+          <t>10,69%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1005,12 +1005,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,91; 12,25</t>
+          <t>6,54; 11,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,72; 24,01</t>
+          <t>14,63; 24,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1020,17 +1020,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>19,34; 30,16</t>
+          <t>19,63; 30,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,03; 16,05</t>
+          <t>9,73; 15,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>29,55; 37,97</t>
+          <t>29,34; 38,3</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1040,17 +1040,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>29,84; 42,33</t>
+          <t>29,51; 42,06</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,17; 13,37</t>
+          <t>8,99; 12,86</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>23,51; 30,07</t>
+          <t>23,52; 29,92</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>26,09; 34,31</t>
+          <t>25,91; 34,27</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>11,45%</t>
+          <t>12,49%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>18,38%</t>
+          <t>16,63%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>14,9%</t>
+          <t>14,61%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1145,12 +1145,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,3; 14,4</t>
+          <t>10,25; 15,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,15; 26,4</t>
+          <t>5,62; 26,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1160,17 +1160,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>19,78; 31,15</t>
+          <t>19,64; 31,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,87; 22,09</t>
+          <t>14,21; 19,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>34,39; 42,61</t>
+          <t>34,5; 43,13</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1180,17 +1180,17 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>31,14; 44,19</t>
+          <t>30,45; 44,34</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>13,26; 16,98</t>
+          <t>12,93; 16,44</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>11,86; 32,78</t>
+          <t>12,02; 32,37</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>26,57; 35,65</t>
+          <t>26,13; 35,63</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>13,95%</t>
+          <t>12,09%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>16,81%</t>
+          <t>17,27%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>15,49%</t>
+          <t>14,89%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
@@ -1285,12 +1285,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>11,02; 17,09</t>
+          <t>9,87; 15,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>24,16; 33,62</t>
+          <t>24,54; 34,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1300,17 +1300,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>23,2; 38,51</t>
+          <t>23,84; 38,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>14,3; 19,7</t>
+          <t>14,8; 20,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>39,88; 48,31</t>
+          <t>40,36; 48,99</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1320,17 +1320,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>26,89; 39,12</t>
+          <t>26,87; 39,04</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>13,52; 17,69</t>
+          <t>13,18; 16,83</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>33,16; 39,6</t>
+          <t>33,58; 39,78</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>26,68; 36,79</t>
+          <t>26,75; 36,9</t>
         </is>
       </c>
     </row>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>10,65%</t>
+          <t>11,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>20,67%</t>
+          <t>21,75%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>15,83%</t>
+          <t>16,65%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -1425,12 +1425,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,33; 13,71</t>
+          <t>8,48; 13,78</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>19,39; 29,38</t>
+          <t>19,51; 29,13</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1440,17 +1440,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>34,49; 53,61</t>
+          <t>35,78; 54,04</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>17,39; 24,03</t>
+          <t>18,82; 25,38</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>51,91; 91,33</t>
+          <t>52,15; 92,65</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1460,17 +1460,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>34,24; 50,24</t>
+          <t>34,58; 50,07</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>13,83; 18,11</t>
+          <t>14,52; 18,91</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>38,66; 82,17</t>
+          <t>38,73; 83,75</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>36,94; 49,11</t>
+          <t>36,53; 49,22</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>21,28%</t>
+          <t>21,16%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>32,5%</t>
+          <t>32,21%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>27,81%</t>
+          <t>27,76%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -1565,12 +1565,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>18,07; 25,42</t>
+          <t>17,78; 25,09</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>29,17; 41,21</t>
+          <t>29,23; 41,84</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1580,17 +1580,17 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>28,3; 45,07</t>
+          <t>28,69; 44,23</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>29,06; 36,02</t>
+          <t>28,9; 35,69</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>56,81; 66,42</t>
+          <t>56,59; 66,3</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1600,17 +1600,17 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>58,13; 71,2</t>
+          <t>57,39; 70,6</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>25,28; 30,41</t>
+          <t>25,26; 30,23</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>47,17; 54,71</t>
+          <t>47,13; 55,07</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1620,7 +1620,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>48,2; 59,64</t>
+          <t>48,63; 58,89</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>11,27%</t>
+          <t>10,88%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>18,6%</t>
+          <t>18,04%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1677,7 +1677,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>15,08%</t>
+          <t>14,63%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
@@ -1705,12 +1705,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>10,23; 12,38</t>
+          <t>9,86; 11,96</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>13,81; 24,08</t>
+          <t>14,12; 24,2</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1720,17 +1720,17 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>25,52; 30,99</t>
+          <t>25,78; 30,79</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>17,15; 19,76</t>
+          <t>16,84; 19,1</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>37,25; 58,9</t>
+          <t>37,31; 61,86</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1740,17 +1740,17 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>36,7; 41,78</t>
+          <t>36,8; 42,35</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>14,21; 15,91</t>
+          <t>13,9; 15,46</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>27,69; 42,51</t>
+          <t>27,69; 42,34</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
@@ -1760,7 +1760,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>32,15; 35,89</t>
+          <t>32,16; 35,84</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2294</t>
+          <t>3017</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -2036,7 +2036,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4485</t>
+          <t>4776</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6779</t>
+          <t>7793</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -2084,12 +2084,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1263; 3982</t>
+          <t>1700; 5325</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>14103; 51917</t>
+          <t>14180; 54470</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -2099,17 +2099,17 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9589; 19241</t>
+          <t>9356; 18552</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2976; 6772</t>
+          <t>3232; 6992</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>27504; 59793</t>
+          <t>28496; 59961</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -2119,17 +2119,17 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>14666; 25001</t>
+          <t>14834; 24922</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>4978; 9421</t>
+          <t>5487; 10633</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>49909; 99200</t>
+          <t>51164; 99958</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
@@ -2139,7 +2139,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>26922; 40404</t>
+          <t>26750; 39518</t>
         </is>
       </c>
     </row>
@@ -2224,7 +2224,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2489</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -2244,7 +2244,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6201</t>
+          <t>5831</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -2264,7 +2264,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>8223</t>
+          <t>8320</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -2292,12 +2292,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>965; 3716</t>
+          <t>1368; 4321</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>34770; 69364</t>
+          <t>34815; 67745</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -2307,17 +2307,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>21144; 35161</t>
+          <t>20790; 34537</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4250; 8580</t>
+          <t>4136; 8058</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>26696; 76148</t>
+          <t>23841; 76745</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -2327,17 +2327,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>31256; 47220</t>
+          <t>32079; 47619</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5973; 11274</t>
+          <t>5957; 11266</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>68073; 133223</t>
+          <t>65464; 133382</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -2347,7 +2347,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>56584; 76847</t>
+          <t>55938; 76552</t>
         </is>
       </c>
     </row>
@@ -2432,7 +2432,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8585</t>
+          <t>9097</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -2452,7 +2452,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>12600</t>
+          <t>13848</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -2472,7 +2472,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>21185</t>
+          <t>22945</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
@@ -2500,12 +2500,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6546; 11602</t>
+          <t>6804; 12107</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>45739; 74603</t>
+          <t>45471; 76834</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -2515,17 +2515,17 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>26957; 42035</t>
+          <t>27356; 42387</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>9778; 15645</t>
+          <t>10773; 17096</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>95334; 122488</t>
+          <t>94648; 123545</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -2535,17 +2535,17 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>39081; 55440</t>
+          <t>38658; 55095</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>17630; 25705</t>
+          <t>19289; 27618</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>148909; 190462</t>
+          <t>148995; 189529</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
@@ -2555,7 +2555,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>70544; 92745</t>
+          <t>70059; 92659</t>
         </is>
       </c>
     </row>
@@ -2640,7 +2640,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>15963</t>
+          <t>18078</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -2660,7 +2660,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>25358</t>
+          <t>25374</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>41321</t>
+          <t>43452</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -2708,12 +2708,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>12967; 20075</t>
+          <t>14847; 22155</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>32285; 165545</t>
+          <t>35246; 164149</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -2723,17 +2723,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>23272; 36647</t>
+          <t>23106; 36971</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>21894; 30484</t>
+          <t>21676; 30043</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>139193; 172467</t>
+          <t>139677; 174603</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -2743,17 +2743,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>37224; 52816</t>
+          <t>36398; 53000</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>36795; 47096</t>
+          <t>38447; 48892</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>122358; 338328</t>
+          <t>123994; 334053</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -2763,7 +2763,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>63018; 84560</t>
+          <t>61970; 84520</t>
         </is>
       </c>
     </row>
@@ -2848,7 +2848,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>17694</t>
+          <t>15673</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -2868,7 +2868,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>24773</t>
+          <t>26239</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -2888,7 +2888,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>42467</t>
+          <t>41911</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
@@ -2916,12 +2916,12 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>13980; 21684</t>
+          <t>12795; 19623</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>81950; 114024</t>
+          <t>83228; 116653</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -2931,17 +2931,17 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>22738; 37743</t>
+          <t>23367; 38030</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>21077; 29032</t>
+          <t>22482; 30557</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>127165; 154069</t>
+          <t>128698; 156220</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -2951,17 +2951,17 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>31155; 45328</t>
+          <t>31131; 45231</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>37069; 48492</t>
+          <t>37114; 47370</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>218208; 260600</t>
+          <t>220987; 261752</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
@@ -2971,7 +2971,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>57061; 78679</t>
+          <t>57219; 78912</t>
         </is>
       </c>
     </row>
@@ -3056,7 +3056,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>11465</t>
+          <t>11491</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -3076,7 +3076,7 @@
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>23749</t>
+          <t>25178</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -3096,7 +3096,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>35214</t>
+          <t>36669</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
@@ -3124,12 +3124,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>8959; 14756</t>
+          <t>8861; 14400</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>40351; 61141</t>
+          <t>40605; 60621</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -3139,17 +3139,17 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>23835; 37047</t>
+          <t>24723; 37346</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>19986; 27611</t>
+          <t>21788; 29383</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>234954; 413396</t>
+          <t>236057; 419360</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -3159,17 +3159,17 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>30180; 44285</t>
+          <t>30480; 44141</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>30781; 40291</t>
+          <t>31980; 41646</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>255407; 542943</t>
+          <t>255874; 553328</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
@@ -3179,7 +3179,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>58097; 77234</t>
+          <t>57453; 77401</t>
         </is>
       </c>
     </row>
@@ -3264,7 +3264,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>20505</t>
+          <t>18883</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -3284,7 +3284,7 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>43531</t>
+          <t>42613</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>64037</t>
+          <t>61496</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
@@ -3332,12 +3332,12 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>17407; 24494</t>
+          <t>15860; 22386</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>44270; 62545</t>
+          <t>44371; 63504</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -3347,17 +3347,17 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>19495; 31050</t>
+          <t>19765; 30471</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>38916; 48237</t>
+          <t>38243; 47225</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>132721; 155169</t>
+          <t>132203; 154871</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -3367,17 +3367,17 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>65501; 80228</t>
+          <t>64666; 79555</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>58209; 70034</t>
+          <t>55958; 66975</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>181791; 210849</t>
+          <t>181640; 212238</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>87516; 108285</t>
+          <t>88295; 106932</t>
         </is>
       </c>
     </row>
@@ -3472,7 +3472,7 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>78528</t>
+          <t>78728</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
@@ -3492,7 +3492,7 @@
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>140698</t>
+          <t>143858</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
@@ -3512,7 +3512,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>219226</t>
+          <t>222586</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
@@ -3540,12 +3540,12 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>71302; 86290</t>
+          <t>71343; 86576</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>290336; 506337</t>
+          <t>296913; 508879</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -3555,17 +3555,17 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>173553; 210789</t>
+          <t>175371; 209455</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>129766; 149506</t>
+          <t>134320; 152300</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>831191; 1314217</t>
+          <t>832520; 1380392</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -3575,17 +3575,17 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>277738; 316167</t>
+          <t>278529; 320514</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>206575; 231295</t>
+          <t>211450; 235242</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>1199865; 1842263</t>
+          <t>1199928; 1834914</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
@@ -3595,7 +3595,7 @@
       </c>
       <c r="N27" s="2" t="inlineStr">
         <is>
-          <t>462011; 515684</t>
+          <t>462186; 515003</t>
         </is>
       </c>
     </row>
